--- a/4_Test_Cases/Test_Cases.xlsx
+++ b/4_Test_Cases/Test_Cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\service-marketplace-manual-qa\4_Test_Cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5331AC-499A-4C6F-A9E7-3014C3ECEC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,359 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Scenario ID</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>TS_01</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Verify user registration with valid details</t>
+  </si>
+  <si>
+    <t>User is on registration page</t>
+  </si>
+  <si>
+    <t>Enter valid details → Submit</t>
+  </si>
+  <si>
+    <t>Valid data</t>
+  </si>
+  <si>
+    <t>User registered successfully</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>Verify invalid email validation</t>
+  </si>
+  <si>
+    <t>Enter invalid email → Submit</t>
+  </si>
+  <si>
+    <t>invalid@email</t>
+  </si>
+  <si>
+    <t>Validation error shown</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Verify login with valid credentials</t>
+  </si>
+  <si>
+    <t>User registered</t>
+  </si>
+  <si>
+    <t>Enter valid credentials → Login</t>
+  </si>
+  <si>
+    <t>Valid credentials</t>
+  </si>
+  <si>
+    <t>Login successful</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>Verify invalid password error</t>
+  </si>
+  <si>
+    <t>Enter wrong password → Login</t>
+  </si>
+  <si>
+    <t>Wrong password</t>
+  </si>
+  <si>
+    <t>Error message displayed</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>TS_07</t>
+  </si>
+  <si>
+    <t>Service Discovery</t>
+  </si>
+  <si>
+    <t>Verify service categories display</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t>Open home page</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Categories visible</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>Verify service details page</t>
+  </si>
+  <si>
+    <t>Open service details</t>
+  </si>
+  <si>
+    <t>Details displayed correctly</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Verify booking with valid slot</t>
+  </si>
+  <si>
+    <t>Select date &amp; slot → Book</t>
+  </si>
+  <si>
+    <t>Valid slot</t>
+  </si>
+  <si>
+    <t>Booking successful</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>TS_12</t>
+  </si>
+  <si>
+    <t>Verify booking with unavailable slot</t>
+  </si>
+  <si>
+    <t>Select unavailable slot</t>
+  </si>
+  <si>
+    <t>Unavailable slot</t>
+  </si>
+  <si>
+    <t>Error message shown</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>TS_16</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Verify successful payment</t>
+  </si>
+  <si>
+    <t>Booking initiated</t>
+  </si>
+  <si>
+    <t>Make payment</t>
+  </si>
+  <si>
+    <t>Mock success</t>
+  </si>
+  <si>
+    <t>Payment successful</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TS_17</t>
+  </si>
+  <si>
+    <t>Verify failed payment</t>
+  </si>
+  <si>
+    <t>Simulate failure</t>
+  </si>
+  <si>
+    <t>Mock failure</t>
+  </si>
+  <si>
+    <t>Payment failed message</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TS_20</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Verify order history</t>
+  </si>
+  <si>
+    <t>User has orders</t>
+  </si>
+  <si>
+    <t>Open My Orders</t>
+  </si>
+  <si>
+    <t>Orders displayed</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TS_21</t>
+  </si>
+  <si>
+    <t>Verify order cancellation</t>
+  </si>
+  <si>
+    <t>Upcoming order exists</t>
+  </si>
+  <si>
+    <t>Cancel order</t>
+  </si>
+  <si>
+    <t>Order cancelled</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TS_24</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>Verify rating submission</t>
+  </si>
+  <si>
+    <t>Service completed</t>
+  </si>
+  <si>
+    <t>Submit rating</t>
+  </si>
+  <si>
+    <t>4 stars</t>
+  </si>
+  <si>
+    <t>Rating submitted</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TS_25</t>
+  </si>
+  <si>
+    <t>Verify rating restriction</t>
+  </si>
+  <si>
+    <t>Service not completed</t>
+  </si>
+  <si>
+    <t>Try to rate</t>
+  </si>
+  <si>
+    <t>Restriction message</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>TS_28</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Verify booking notification</t>
+  </si>
+  <si>
+    <t>Check notifications</t>
+  </si>
+  <si>
+    <t>Notification received</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +384,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +428,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +734,561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B9664448-2FB7-4DEF-B2B1-689A9B02AB1B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/4_Test_Cases/Test_Cases.xlsx
+++ b/4_Test_Cases/Test_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\service-marketplace-manual-qa\4_Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5331AC-499A-4C6F-A9E7-3014C3ECEC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7368F8-746E-4B2C-B4D8-0B11DB2E0223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -370,6 +370,15 @@
   </si>
   <si>
     <t>Notification received</t>
+  </si>
+  <si>
+    <t>User registered successfully and confirmation notification received</t>
+  </si>
+  <si>
+    <t>Error of validation is showing.</t>
+  </si>
+  <si>
+    <t>user logged in and notification for the login can be seen.</t>
   </si>
 </sst>
 </file>
@@ -737,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +760,7 @@
     <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -814,7 +824,9 @@
       <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
@@ -847,7 +859,9 @@
       <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
@@ -880,7 +894,9 @@
       <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
